--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t xml:space="preserve">MI + AG</t>
   </si>
@@ -101,25 +101,22 @@
     <t xml:space="preserve">Additional 10% Decrease to PC</t>
   </si>
   <si>
-    <t xml:space="preserve">562412.618334614</t>
+    <t xml:space="preserve">557841.74555641</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Low Emission ET</t>
   </si>
   <si>
-    <t xml:space="preserve">518494.720927184</t>
+    <t xml:space="preserve">515477.944893569</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">499808.041255444</t>
+    <t xml:space="preserve">497248.352499649</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2015</t>
@@ -149,7 +146,7 @@
     <t xml:space="preserve">MI_SA_PCDD_LowET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">487875.828799948</t>
+    <t xml:space="preserve">489330.625459097</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2070_65% Conversion Factor</t>
@@ -158,163 +155,163 @@
     <t xml:space="preserve">5109197</t>
   </si>
   <si>
-    <t xml:space="preserve">418945.094905156</t>
+    <t xml:space="preserve">420399.891564305</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">388982.876946229</t>
+    <t xml:space="preserve">390437.673605378</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">512231.151259864</t>
+    <t xml:space="preserve">505567.507099041</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">435019.6077287</t>
+    <t xml:space="preserve">431116.233446668</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">402621.857523782</t>
+    <t xml:space="preserve">399530.327323747</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">497617.957783914</t>
+    <t xml:space="preserve">499072.754443063</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_LowET_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">425374.900034573</t>
+    <t xml:space="preserve">426829.696693723</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_LowET_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">394438.46917725</t>
+    <t xml:space="preserve">395893.265836399</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_LowET_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">507737.790527889</t>
+    <t xml:space="preserve">509381.748727305</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">438807.056633097</t>
+    <t xml:space="preserve">440451.014832512</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">408844.83867417</t>
+    <t xml:space="preserve">410488.796873586</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">532093.112987805</t>
+    <t xml:space="preserve">525618.630367248</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">454881.569456641</t>
+    <t xml:space="preserve">451167.356714875</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">422483.819251723</t>
+    <t xml:space="preserve">419581.450591954</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">517479.919511855</t>
+    <t xml:space="preserve">519123.877711271</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_LowET_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">445236.861762515</t>
+    <t xml:space="preserve">446880.81996193</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_LowET_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">414300.430905191</t>
+    <t xml:space="preserve">415944.389104607</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_LowET_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">521924.906047847</t>
+    <t xml:space="preserve">523703.979633167</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">452994.172153055</t>
+    <t xml:space="preserve">454773.245738375</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">423031.954194128</t>
+    <t xml:space="preserve">424811.027779448</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">546280.228507763</t>
+    <t xml:space="preserve">539940.861273111</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">469068.6849766</t>
+    <t xml:space="preserve">465489.587620738</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">436670.934771681</t>
+    <t xml:space="preserve">433903.681497817</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">531667.035031814</t>
+    <t xml:space="preserve">533446.108617133</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_LowET_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">459423.977282473</t>
+    <t xml:space="preserve">461203.050867793</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_LowET_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">428487.546425149</t>
+    <t xml:space="preserve">430266.620010469</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_LowET_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">498886.212701061</t>
+    <t xml:space="preserve">499790.315228951</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150_65% Conversion Factor</t>
@@ -323,157 +320,157 @@
     <t xml:space="preserve">6965058</t>
   </si>
   <si>
-    <t xml:space="preserve">403835.919688161</t>
+    <t xml:space="preserve">404740.022216052</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">362379.452068664</t>
+    <t xml:space="preserve">363283.554596555</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">532382.353571937</t>
+    <t xml:space="preserve">522121.075809535</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">425943.37266294</t>
+    <t xml:space="preserve">419478.324199237</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">381137.290956355</t>
+    <t xml:space="preserve">375788.780521682</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">512284.66904941</t>
+    <t xml:space="preserve">513188.771577301</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_LowET_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">412678.900878073</t>
+    <t xml:space="preserve">413583.003405963</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_LowET_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">369882.587623741</t>
+    <t xml:space="preserve">370786.690151631</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_LowET_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">506543.744611916</t>
+    <t xml:space="preserve">507589.653286304</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">411493.451599017</t>
+    <t xml:space="preserve">412539.360273405</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">370036.98397952</t>
+    <t xml:space="preserve">371082.892653908</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">540039.885482792</t>
+    <t xml:space="preserve">529920.413866888</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">433600.904573795</t>
+    <t xml:space="preserve">427277.66225659</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">388794.822867211</t>
+    <t xml:space="preserve">383588.118579035</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">519942.200960266</t>
+    <t xml:space="preserve">520988.109634654</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_LowET_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">420336.432788928</t>
+    <t xml:space="preserve">421382.341463316</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_LowET_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">377540.119534596</t>
+    <t xml:space="preserve">378586.028208984</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_LowET_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">525327.406496968</t>
+    <t xml:space="preserve">526721.16076182</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">430277.113484069</t>
+    <t xml:space="preserve">431670.867748921</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">388820.645864572</t>
+    <t xml:space="preserve">390214.400129424</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">558823.547367844</t>
+    <t xml:space="preserve">549051.921342404</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">452384.566458847</t>
+    <t xml:space="preserve">446409.169732106</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">407578.484752263</t>
+    <t xml:space="preserve">402719.626054551</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">538725.862845318</t>
+    <t xml:space="preserve">540119.61711017</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_LowET_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">439120.09467398</t>
+    <t xml:space="preserve">440513.848938832</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_LowET_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">396323.781419648</t>
+    <t xml:space="preserve">397717.5356845</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_LowET_2150_78% Conversion Factor</t>
@@ -974,10 +971,10 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -985,7 +982,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
         <v>2015</v>
@@ -994,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1009,10 +1006,10 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
         <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -1020,7 +1017,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2015</v>
@@ -1029,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -1044,10 +1041,10 @@
         <v>28</v>
       </c>
       <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
         <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -1055,7 +1052,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
         <v>2015</v>
@@ -1064,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1079,10 +1076,10 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
         <v>39</v>
-      </c>
-      <c r="J8" t="s">
-        <v>40</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -1090,7 +1087,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
         <v>2015</v>
@@ -1099,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -1114,10 +1111,10 @@
         <v>22</v>
       </c>
       <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
         <v>39</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -1125,7 +1122,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="n">
         <v>2015</v>
@@ -1134,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -1149,10 +1146,10 @@
         <v>28</v>
       </c>
       <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
         <v>39</v>
-      </c>
-      <c r="J10" t="s">
-        <v>40</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -1160,7 +1157,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="n">
         <v>2070</v>
@@ -1169,7 +1166,7 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1190,12 +1187,12 @@
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="n">
         <v>2070</v>
@@ -1204,7 +1201,7 @@
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -1225,12 +1222,12 @@
         <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="n">
         <v>2070</v>
@@ -1239,7 +1236,7 @@
         <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -1260,12 +1257,12 @@
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" t="n">
         <v>2070</v>
@@ -1274,7 +1271,7 @@
         <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1289,18 +1286,18 @@
         <v>14</v>
       </c>
       <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
         <v>31</v>
       </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="n">
         <v>2070</v>
@@ -1309,7 +1306,7 @@
         <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -1324,18 +1321,18 @@
         <v>22</v>
       </c>
       <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="n">
         <v>2070</v>
@@ -1344,7 +1341,7 @@
         <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -1359,18 +1356,18 @@
         <v>28</v>
       </c>
       <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="J16" t="s">
-        <v>32</v>
-      </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" t="n">
         <v>2070</v>
@@ -1379,7 +1376,7 @@
         <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1394,18 +1391,18 @@
         <v>14</v>
       </c>
       <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
         <v>39</v>
       </c>
-      <c r="J17" t="s">
-        <v>40</v>
-      </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" t="n">
         <v>2070</v>
@@ -1414,7 +1411,7 @@
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
@@ -1429,18 +1426,18 @@
         <v>22</v>
       </c>
       <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
         <v>39</v>
       </c>
-      <c r="J18" t="s">
-        <v>40</v>
-      </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="n">
         <v>2070</v>
@@ -1449,7 +1446,7 @@
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -1464,18 +1461,18 @@
         <v>28</v>
       </c>
       <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
         <v>39</v>
       </c>
-      <c r="J19" t="s">
-        <v>40</v>
-      </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="n">
         <v>2070</v>
@@ -1484,7 +1481,7 @@
         <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
@@ -1505,12 +1502,12 @@
         <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" t="n">
         <v>2070</v>
@@ -1519,7 +1516,7 @@
         <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -1540,12 +1537,12 @@
         <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" t="n">
         <v>2070</v>
@@ -1554,7 +1551,7 @@
         <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
@@ -1575,12 +1572,12 @@
         <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" t="n">
         <v>2070</v>
@@ -1589,7 +1586,7 @@
         <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -1604,18 +1601,18 @@
         <v>14</v>
       </c>
       <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
         <v>31</v>
       </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" t="n">
         <v>2070</v>
@@ -1624,7 +1621,7 @@
         <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
@@ -1639,18 +1636,18 @@
         <v>22</v>
       </c>
       <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
         <v>31</v>
       </c>
-      <c r="J24" t="s">
-        <v>32</v>
-      </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" t="n">
         <v>2070</v>
@@ -1659,7 +1656,7 @@
         <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
@@ -1674,18 +1671,18 @@
         <v>28</v>
       </c>
       <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
         <v>31</v>
       </c>
-      <c r="J25" t="s">
-        <v>32</v>
-      </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="n">
         <v>2070</v>
@@ -1694,7 +1691,7 @@
         <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1709,18 +1706,18 @@
         <v>14</v>
       </c>
       <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
         <v>39</v>
       </c>
-      <c r="J26" t="s">
-        <v>40</v>
-      </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" t="n">
         <v>2070</v>
@@ -1729,7 +1726,7 @@
         <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -1744,18 +1741,18 @@
         <v>22</v>
       </c>
       <c r="I27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s">
         <v>39</v>
       </c>
-      <c r="J27" t="s">
-        <v>40</v>
-      </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" t="n">
         <v>2070</v>
@@ -1764,7 +1761,7 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
@@ -1779,18 +1776,18 @@
         <v>28</v>
       </c>
       <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s">
         <v>39</v>
       </c>
-      <c r="J28" t="s">
-        <v>40</v>
-      </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" t="n">
         <v>2070</v>
@@ -1799,7 +1796,7 @@
         <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -1820,12 +1817,12 @@
         <v>15</v>
       </c>
       <c r="K29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" t="n">
         <v>2070</v>
@@ -1834,7 +1831,7 @@
         <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
@@ -1855,12 +1852,12 @@
         <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" t="n">
         <v>2070</v>
@@ -1869,7 +1866,7 @@
         <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
         <v>25</v>
@@ -1890,12 +1887,12 @@
         <v>15</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" t="n">
         <v>2070</v>
@@ -1904,7 +1901,7 @@
         <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -1919,18 +1916,18 @@
         <v>14</v>
       </c>
       <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
         <v>31</v>
       </c>
-      <c r="J32" t="s">
-        <v>32</v>
-      </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" t="n">
         <v>2070</v>
@@ -1939,7 +1936,7 @@
         <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
@@ -1954,18 +1951,18 @@
         <v>22</v>
       </c>
       <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
         <v>31</v>
       </c>
-      <c r="J33" t="s">
-        <v>32</v>
-      </c>
       <c r="K33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" t="n">
         <v>2070</v>
@@ -1974,7 +1971,7 @@
         <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
         <v>25</v>
@@ -1989,18 +1986,18 @@
         <v>28</v>
       </c>
       <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
         <v>31</v>
       </c>
-      <c r="J34" t="s">
-        <v>32</v>
-      </c>
       <c r="K34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="n">
         <v>2070</v>
@@ -2009,7 +2006,7 @@
         <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -2024,18 +2021,18 @@
         <v>14</v>
       </c>
       <c r="I35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s">
         <v>39</v>
       </c>
-      <c r="J35" t="s">
-        <v>40</v>
-      </c>
       <c r="K35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" t="n">
         <v>2070</v>
@@ -2044,7 +2041,7 @@
         <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -2059,18 +2056,18 @@
         <v>22</v>
       </c>
       <c r="I36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s">
         <v>39</v>
       </c>
-      <c r="J36" t="s">
-        <v>40</v>
-      </c>
       <c r="K36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" t="n">
         <v>2070</v>
@@ -2079,7 +2076,7 @@
         <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
@@ -2094,18 +2091,18 @@
         <v>28</v>
       </c>
       <c r="I37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s">
         <v>39</v>
       </c>
-      <c r="J37" t="s">
-        <v>40</v>
-      </c>
       <c r="K37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" t="n">
         <v>2150</v>
@@ -2114,7 +2111,7 @@
         <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -2135,12 +2132,12 @@
         <v>15</v>
       </c>
       <c r="K38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" t="n">
         <v>2150</v>
@@ -2149,7 +2146,7 @@
         <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s">
         <v>19</v>
@@ -2170,12 +2167,12 @@
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" t="n">
         <v>2150</v>
@@ -2184,7 +2181,7 @@
         <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
@@ -2205,12 +2202,12 @@
         <v>15</v>
       </c>
       <c r="K40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" t="n">
         <v>2150</v>
@@ -2219,7 +2216,7 @@
         <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
@@ -2234,18 +2231,18 @@
         <v>14</v>
       </c>
       <c r="I41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
         <v>31</v>
       </c>
-      <c r="J41" t="s">
-        <v>32</v>
-      </c>
       <c r="K41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" t="n">
         <v>2150</v>
@@ -2254,7 +2251,7 @@
         <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
@@ -2269,18 +2266,18 @@
         <v>22</v>
       </c>
       <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s">
         <v>31</v>
       </c>
-      <c r="J42" t="s">
-        <v>32</v>
-      </c>
       <c r="K42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" t="n">
         <v>2150</v>
@@ -2289,7 +2286,7 @@
         <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
@@ -2304,18 +2301,18 @@
         <v>28</v>
       </c>
       <c r="I43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s">
         <v>31</v>
       </c>
-      <c r="J43" t="s">
-        <v>32</v>
-      </c>
       <c r="K43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" t="n">
         <v>2150</v>
@@ -2324,7 +2321,7 @@
         <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -2339,18 +2336,18 @@
         <v>14</v>
       </c>
       <c r="I44" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" t="s">
         <v>39</v>
       </c>
-      <c r="J44" t="s">
-        <v>40</v>
-      </c>
       <c r="K44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" t="n">
         <v>2150</v>
@@ -2359,7 +2356,7 @@
         <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
         <v>19</v>
@@ -2374,18 +2371,18 @@
         <v>22</v>
       </c>
       <c r="I45" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" t="s">
         <v>39</v>
       </c>
-      <c r="J45" t="s">
-        <v>40</v>
-      </c>
       <c r="K45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" t="n">
         <v>2150</v>
@@ -2394,7 +2391,7 @@
         <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
         <v>25</v>
@@ -2409,18 +2406,18 @@
         <v>28</v>
       </c>
       <c r="I46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" t="s">
         <v>39</v>
       </c>
-      <c r="J46" t="s">
-        <v>40</v>
-      </c>
       <c r="K46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47" t="n">
         <v>2150</v>
@@ -2429,7 +2426,7 @@
         <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
         <v>13</v>
@@ -2450,12 +2447,12 @@
         <v>15</v>
       </c>
       <c r="K47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="n">
         <v>2150</v>
@@ -2464,7 +2461,7 @@
         <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
@@ -2485,12 +2482,12 @@
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" t="n">
         <v>2150</v>
@@ -2499,7 +2496,7 @@
         <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
@@ -2520,12 +2517,12 @@
         <v>15</v>
       </c>
       <c r="K49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" t="n">
         <v>2150</v>
@@ -2534,7 +2531,7 @@
         <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
@@ -2549,18 +2546,18 @@
         <v>14</v>
       </c>
       <c r="I50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" t="s">
         <v>31</v>
       </c>
-      <c r="J50" t="s">
-        <v>32</v>
-      </c>
       <c r="K50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" t="n">
         <v>2150</v>
@@ -2569,7 +2566,7 @@
         <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
         <v>19</v>
@@ -2584,18 +2581,18 @@
         <v>22</v>
       </c>
       <c r="I51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s">
         <v>31</v>
       </c>
-      <c r="J51" t="s">
-        <v>32</v>
-      </c>
       <c r="K51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B52" t="n">
         <v>2150</v>
@@ -2604,7 +2601,7 @@
         <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
         <v>25</v>
@@ -2619,18 +2616,18 @@
         <v>28</v>
       </c>
       <c r="I52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" t="s">
         <v>31</v>
       </c>
-      <c r="J52" t="s">
-        <v>32</v>
-      </c>
       <c r="K52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" t="n">
         <v>2150</v>
@@ -2639,7 +2636,7 @@
         <v>72</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
@@ -2654,18 +2651,18 @@
         <v>14</v>
       </c>
       <c r="I53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s">
         <v>39</v>
       </c>
-      <c r="J53" t="s">
-        <v>40</v>
-      </c>
       <c r="K53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" t="n">
         <v>2150</v>
@@ -2674,7 +2671,7 @@
         <v>72</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
@@ -2689,18 +2686,18 @@
         <v>22</v>
       </c>
       <c r="I54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s">
         <v>39</v>
       </c>
-      <c r="J54" t="s">
-        <v>40</v>
-      </c>
       <c r="K54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B55" t="n">
         <v>2150</v>
@@ -2709,7 +2706,7 @@
         <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
         <v>25</v>
@@ -2724,18 +2721,18 @@
         <v>28</v>
       </c>
       <c r="I55" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" t="s">
         <v>39</v>
       </c>
-      <c r="J55" t="s">
-        <v>40</v>
-      </c>
       <c r="K55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B56" t="n">
         <v>2150</v>
@@ -2744,7 +2741,7 @@
         <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
         <v>13</v>
@@ -2765,12 +2762,12 @@
         <v>15</v>
       </c>
       <c r="K56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B57" t="n">
         <v>2150</v>
@@ -2779,7 +2776,7 @@
         <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" t="s">
         <v>19</v>
@@ -2800,12 +2797,12 @@
         <v>15</v>
       </c>
       <c r="K57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B58" t="n">
         <v>2150</v>
@@ -2814,7 +2811,7 @@
         <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" t="s">
         <v>25</v>
@@ -2835,12 +2832,12 @@
         <v>15</v>
       </c>
       <c r="K58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" t="n">
         <v>2150</v>
@@ -2849,7 +2846,7 @@
         <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
@@ -2864,18 +2861,18 @@
         <v>14</v>
       </c>
       <c r="I59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" t="s">
         <v>31</v>
       </c>
-      <c r="J59" t="s">
-        <v>32</v>
-      </c>
       <c r="K59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" t="n">
         <v>2150</v>
@@ -2884,7 +2881,7 @@
         <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
@@ -2899,18 +2896,18 @@
         <v>22</v>
       </c>
       <c r="I60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" t="s">
         <v>31</v>
       </c>
-      <c r="J60" t="s">
-        <v>32</v>
-      </c>
       <c r="K60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B61" t="n">
         <v>2150</v>
@@ -2919,7 +2916,7 @@
         <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61" t="s">
         <v>25</v>
@@ -2934,18 +2931,18 @@
         <v>28</v>
       </c>
       <c r="I61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s">
         <v>31</v>
       </c>
-      <c r="J61" t="s">
-        <v>32</v>
-      </c>
       <c r="K61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B62" t="n">
         <v>2150</v>
@@ -2954,7 +2951,7 @@
         <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -2969,18 +2966,18 @@
         <v>14</v>
       </c>
       <c r="I62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s">
         <v>39</v>
       </c>
-      <c r="J62" t="s">
-        <v>40</v>
-      </c>
       <c r="K62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B63" t="n">
         <v>2150</v>
@@ -2989,7 +2986,7 @@
         <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -3004,18 +3001,18 @@
         <v>22</v>
       </c>
       <c r="I63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s">
         <v>39</v>
       </c>
-      <c r="J63" t="s">
-        <v>40</v>
-      </c>
       <c r="K63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B64" t="n">
         <v>2150</v>
@@ -3024,7 +3021,7 @@
         <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
         <v>25</v>
@@ -3039,13 +3036,13 @@
         <v>28</v>
       </c>
       <c r="I64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s">
         <v>39</v>
       </c>
-      <c r="J64" t="s">
-        <v>40</v>
-      </c>
       <c r="K64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
@@ -101,22 +101,22 @@
     <t xml:space="preserve">Additional 10% Decrease to PC</t>
   </si>
   <si>
-    <t xml:space="preserve">557841.74555641</t>
+    <t xml:space="preserve">562412.618334614</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Low Emission ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">515477.944893569</t>
+    <t xml:space="preserve">Low Emissions ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">518494.720927184</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">497248.352499649</t>
+    <t xml:space="preserve">499808.041255444</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2015</t>
@@ -125,28 +125,28 @@
     <t xml:space="preserve">554185.047333846</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_LowET_2015</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2015</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">Highest Emission ET</t>
+    <t xml:space="preserve">High Emissions ET</t>
   </si>
   <si>
     <t xml:space="preserve">513064.524066677</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2015</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2015</t>
   </si>
   <si>
     <t xml:space="preserve">495200.601495014</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">489330.625459097</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">695570.750503516</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2070_65% Conversion Factor</t>
@@ -155,163 +155,163 @@
     <t xml:space="preserve">5109197</t>
   </si>
   <si>
-    <t xml:space="preserve">420399.891564305</t>
+    <t xml:space="preserve">626640.016608724</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">390437.673605378</t>
+    <t xml:space="preserve">596677.798649798</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">505567.507099041</t>
+    <t xml:space="preserve">719926.072963432</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">431116.233446668</t>
+    <t xml:space="preserve">642714.529432269</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">399530.327323747</t>
+    <t xml:space="preserve">610316.77922735</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">499072.754443063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_LowET_2070_65% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">426829.696693723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2070_65% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">395893.265836399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2070_65% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">509381.748727305</t>
+    <t xml:space="preserve">705312.879487483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ET_Low_2070_65% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">633069.821738142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2070_65% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">602133.390880819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070_65% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">506759.368420597</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">440451.014832512</t>
+    <t xml:space="preserve">437828.634525805</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">410488.796873586</t>
+    <t xml:space="preserve">407866.416566879</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">525618.630367248</t>
+    <t xml:space="preserve">531114.690880513</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">451167.356714875</t>
+    <t xml:space="preserve">453903.14734935</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">419581.450591954</t>
+    <t xml:space="preserve">421505.397144431</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">519123.877711271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_LowET_2070_72% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">446880.81996193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2070_72% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">415944.389104607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2070_72% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">523703.979633167</t>
+    <t xml:space="preserve">516501.497404564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ET_Low_2070_72% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444258.439655223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2070_72% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413322.008797899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070_72% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">482783.319902131</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">454773.245738375</t>
+    <t xml:space="preserve">413852.586007339</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">424811.027779448</t>
+    <t xml:space="preserve">383890.368048413</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">539940.861273111</t>
+    <t xml:space="preserve">507138.642362047</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">465489.587620738</t>
+    <t xml:space="preserve">429927.098830884</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">433903.681497817</t>
+    <t xml:space="preserve">397529.348625965</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">533446.108617133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_LowET_2070_78% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">461203.050867793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2070_78% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">430266.620010469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2070_78% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">499790.315228951</t>
+    <t xml:space="preserve">492525.448886098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ET_Low_2070_78% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420282.391136757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2070_78% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389345.960279434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070_78% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">824115.079973905</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150_65% Conversion Factor</t>
@@ -320,160 +320,160 @@
     <t xml:space="preserve">6965058</t>
   </si>
   <si>
-    <t xml:space="preserve">404740.022216052</t>
+    <t xml:space="preserve">729064.786961005</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">363283.554596555</t>
+    <t xml:space="preserve">687608.319341508</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">522121.075809535</t>
+    <t xml:space="preserve">857611.220844781</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">419478.324199237</t>
+    <t xml:space="preserve">751172.239935784</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">375788.780521682</t>
+    <t xml:space="preserve">706366.158229199</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">513188.771577301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_LowET_2150_65% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">413583.003405963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2150_65% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">370786.690151631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2150_65% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">507589.653286304</t>
+    <t xml:space="preserve">837513.536322254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ET_Low_2150_65% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">737907.768150917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150_65% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">695111.454896585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150_65% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">504190.745056323</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">412539.360273405</t>
+    <t xml:space="preserve">409140.452043424</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">371082.892653908</t>
+    <t xml:space="preserve">367683.984423927</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">529920.413866888</t>
+    <t xml:space="preserve">537686.8859272</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">427277.66225659</t>
+    <t xml:space="preserve">431247.905018202</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">383588.118579035</t>
+    <t xml:space="preserve">386441.823311618</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">520988.109634654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_LowET_2150_72% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421382.341463316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2150_72% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">378586.028208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2150_72% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">526721.16076182</t>
+    <t xml:space="preserve">517589.201404673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ET_Low_2150_72% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">417983.433233335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150_72% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">375187.119979003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150_72% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">498137.243706499</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">431670.867748921</t>
+    <t xml:space="preserve">403086.9506936</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">390214.400129424</t>
+    <t xml:space="preserve">361630.483074103</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">549051.921342404</t>
+    <t xml:space="preserve">531633.384577375</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">446409.169732106</t>
+    <t xml:space="preserve">425194.403668378</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">402719.626054551</t>
+    <t xml:space="preserve">380388.321961794</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">540119.61711017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_LowET_2150_78% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440513.848938832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2150_78% Conversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397717.5356845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2150_78% Conversion Factor</t>
+    <t xml:space="preserve">511535.700054849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ET_Low_2150_78% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411929.931883511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150_78% Conversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">369133.618629179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150_78% Conversion Factor</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1163,7 @@
         <v>2070</v>
       </c>
       <c r="C11" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1198,7 +1198,7 @@
         <v>2070</v>
       </c>
       <c r="C12" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -1233,7 +1233,7 @@
         <v>2070</v>
       </c>
       <c r="C13" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -1268,7 +1268,7 @@
         <v>2070</v>
       </c>
       <c r="C14" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
@@ -1303,7 +1303,7 @@
         <v>2070</v>
       </c>
       <c r="C15" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
@@ -1338,7 +1338,7 @@
         <v>2070</v>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>56</v>
@@ -1373,7 +1373,7 @@
         <v>2070</v>
       </c>
       <c r="C17" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>58</v>
@@ -1408,7 +1408,7 @@
         <v>2070</v>
       </c>
       <c r="C18" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
@@ -1443,7 +1443,7 @@
         <v>2070</v>
       </c>
       <c r="C19" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>62</v>
@@ -1478,7 +1478,7 @@
         <v>2070</v>
       </c>
       <c r="C20" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>64</v>
@@ -1513,7 +1513,7 @@
         <v>2070</v>
       </c>
       <c r="C21" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>66</v>
@@ -1548,7 +1548,7 @@
         <v>2070</v>
       </c>
       <c r="C22" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
@@ -1583,7 +1583,7 @@
         <v>2070</v>
       </c>
       <c r="C23" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
@@ -1618,7 +1618,7 @@
         <v>2070</v>
       </c>
       <c r="C24" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -1653,7 +1653,7 @@
         <v>2070</v>
       </c>
       <c r="C25" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>74</v>
@@ -1688,7 +1688,7 @@
         <v>2070</v>
       </c>
       <c r="C26" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
@@ -1723,7 +1723,7 @@
         <v>2070</v>
       </c>
       <c r="C27" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>78</v>
@@ -1758,7 +1758,7 @@
         <v>2070</v>
       </c>
       <c r="C28" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -1793,7 +1793,7 @@
         <v>2070</v>
       </c>
       <c r="C29" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
         <v>82</v>
@@ -1828,7 +1828,7 @@
         <v>2070</v>
       </c>
       <c r="C30" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
         <v>84</v>
@@ -1863,7 +1863,7 @@
         <v>2070</v>
       </c>
       <c r="C31" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
         <v>86</v>
@@ -1898,7 +1898,7 @@
         <v>2070</v>
       </c>
       <c r="C32" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
         <v>88</v>
@@ -1933,7 +1933,7 @@
         <v>2070</v>
       </c>
       <c r="C33" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
         <v>90</v>
@@ -1968,7 +1968,7 @@
         <v>2070</v>
       </c>
       <c r="C34" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
         <v>92</v>
@@ -2003,7 +2003,7 @@
         <v>2070</v>
       </c>
       <c r="C35" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
         <v>94</v>
@@ -2038,7 +2038,7 @@
         <v>2070</v>
       </c>
       <c r="C36" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
         <v>96</v>
@@ -2073,7 +2073,7 @@
         <v>2070</v>
       </c>
       <c r="C37" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
         <v>98</v>
@@ -2108,7 +2108,7 @@
         <v>2150</v>
       </c>
       <c r="C38" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>100</v>
@@ -2143,7 +2143,7 @@
         <v>2150</v>
       </c>
       <c r="C39" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>103</v>
@@ -2178,7 +2178,7 @@
         <v>2150</v>
       </c>
       <c r="C40" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>105</v>
@@ -2213,7 +2213,7 @@
         <v>2150</v>
       </c>
       <c r="C41" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>107</v>
@@ -2248,7 +2248,7 @@
         <v>2150</v>
       </c>
       <c r="C42" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>109</v>
@@ -2283,7 +2283,7 @@
         <v>2150</v>
       </c>
       <c r="C43" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>111</v>
@@ -2318,7 +2318,7 @@
         <v>2150</v>
       </c>
       <c r="C44" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>113</v>
@@ -2353,7 +2353,7 @@
         <v>2150</v>
       </c>
       <c r="C45" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
         <v>115</v>
@@ -2388,7 +2388,7 @@
         <v>2150</v>
       </c>
       <c r="C46" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>117</v>
@@ -2423,7 +2423,7 @@
         <v>2150</v>
       </c>
       <c r="C47" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
         <v>119</v>
@@ -2458,7 +2458,7 @@
         <v>2150</v>
       </c>
       <c r="C48" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
         <v>121</v>
@@ -2493,7 +2493,7 @@
         <v>2150</v>
       </c>
       <c r="C49" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
         <v>123</v>
@@ -2528,7 +2528,7 @@
         <v>2150</v>
       </c>
       <c r="C50" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
         <v>125</v>
@@ -2563,7 +2563,7 @@
         <v>2150</v>
       </c>
       <c r="C51" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
         <v>127</v>
@@ -2598,7 +2598,7 @@
         <v>2150</v>
       </c>
       <c r="C52" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
         <v>129</v>
@@ -2633,7 +2633,7 @@
         <v>2150</v>
       </c>
       <c r="C53" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
         <v>131</v>
@@ -2668,7 +2668,7 @@
         <v>2150</v>
       </c>
       <c r="C54" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
         <v>133</v>
@@ -2703,7 +2703,7 @@
         <v>2150</v>
       </c>
       <c r="C55" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
         <v>135</v>
@@ -2738,7 +2738,7 @@
         <v>2150</v>
       </c>
       <c r="C56" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
         <v>137</v>
@@ -2773,7 +2773,7 @@
         <v>2150</v>
       </c>
       <c r="C57" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
         <v>139</v>
@@ -2808,7 +2808,7 @@
         <v>2150</v>
       </c>
       <c r="C58" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
         <v>141</v>
@@ -2843,7 +2843,7 @@
         <v>2150</v>
       </c>
       <c r="C59" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
         <v>143</v>
@@ -2878,7 +2878,7 @@
         <v>2150</v>
       </c>
       <c r="C60" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
         <v>145</v>
@@ -2913,7 +2913,7 @@
         <v>2150</v>
       </c>
       <c r="C61" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
         <v>147</v>
@@ -2948,7 +2948,7 @@
         <v>2150</v>
       </c>
       <c r="C62" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
         <v>149</v>
@@ -2983,7 +2983,7 @@
         <v>2150</v>
       </c>
       <c r="C63" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
         <v>151</v>
@@ -3018,7 +3018,7 @@
         <v>2150</v>
       </c>
       <c r="C64" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
         <v>153</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t xml:space="preserve">MI + AG</t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">Average_PerCapita_%_Change</t>
   </si>
   <si>
+    <t xml:space="preserve">Average_GPCD_Change</t>
+  </si>
+  <si>
     <t xml:space="preserve">PerCapita_Scenario</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t xml:space="preserve">ET_Scenario</t>
   </si>
   <si>
+    <t xml:space="preserve">ET_Changes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Population</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t xml:space="preserve">25</t>
   </si>
   <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025 Goal PC 25% from 2015</t>
   </si>
   <si>
@@ -98,10 +107,13 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Additional 10% Decrease to PC</t>
   </si>
   <si>
-    <t xml:space="preserve">562412.618334614</t>
+    <t xml:space="preserve">557841.74555641</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2015</t>
@@ -110,13 +122,16 @@
     <t xml:space="preserve">Low Emissions ET</t>
   </si>
   <si>
-    <t xml:space="preserve">518494.720927184</t>
+    <t xml:space="preserve">9142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515477.944893569</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">499808.041255444</t>
+    <t xml:space="preserve">497248.352499649</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2015</t>
@@ -134,6 +149,9 @@
     <t xml:space="preserve">High Emissions ET</t>
   </si>
   <si>
+    <t xml:space="preserve">5485</t>
+  </si>
+  <si>
     <t xml:space="preserve">513064.524066677</t>
   </si>
   <si>
@@ -167,19 +185,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">719926.072963432</t>
+    <t xml:space="preserve">711807.63214346</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">642714.529432269</t>
+    <t xml:space="preserve">16237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">637356.358491087</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2070_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">610316.77922735</t>
+    <t xml:space="preserve">605770.452368166</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2070_65% Conversion Factor</t>
@@ -191,6 +212,9 @@
     <t xml:space="preserve">MI_SA_ET_Low_2070_65% Conversion Factor</t>
   </si>
   <si>
+    <t xml:space="preserve">9742</t>
+  </si>
+  <si>
     <t xml:space="preserve">633069.821738142</t>
   </si>
   <si>
@@ -221,19 +245,19 @@
     <t xml:space="preserve">MI_SA_PCDD_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">531114.690880513</t>
+    <t xml:space="preserve">522996.250060541</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">453903.14734935</t>
+    <t xml:space="preserve">448544.976408168</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2070_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">421505.397144431</t>
+    <t xml:space="preserve">416959.070285247</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2070_72% Conversion Factor</t>
@@ -275,19 +299,19 @@
     <t xml:space="preserve">MI_SA_PCDD_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">507138.642362047</t>
+    <t xml:space="preserve">499020.201542075</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">429927.098830884</t>
+    <t xml:space="preserve">424568.927889702</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2070_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">397529.348625965</t>
+    <t xml:space="preserve">392983.021766781</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2070_78% Conversion Factor</t>
@@ -332,19 +356,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">857611.220844781</t>
+    <t xml:space="preserve">846445.840554488</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">751172.239935784</t>
+    <t xml:space="preserve">22331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">743803.088944191</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2150_65% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">706366.158229199</t>
+    <t xml:space="preserve">700113.545266636</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150_65% Conversion Factor</t>
@@ -356,6 +383,9 @@
     <t xml:space="preserve">MI_SA_ET_Low_2150_65% Conversion Factor</t>
   </si>
   <si>
+    <t xml:space="preserve">13398</t>
+  </si>
+  <si>
     <t xml:space="preserve">737907.768150917</t>
   </si>
   <si>
@@ -386,19 +416,19 @@
     <t xml:space="preserve">MI_SA_PCDD_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">537686.8859272</t>
+    <t xml:space="preserve">526521.505636907</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">431247.905018202</t>
+    <t xml:space="preserve">423878.75402661</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2150_72% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">386441.823311618</t>
+    <t xml:space="preserve">380189.210349054</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150_72% Conversion Factor</t>
@@ -440,19 +470,19 @@
     <t xml:space="preserve">MI_SA_PCDD_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">531633.384577375</t>
+    <t xml:space="preserve">520468.004287083</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">425194.403668378</t>
+    <t xml:space="preserve">417825.252676785</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2150_78% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">380388.321961794</t>
+    <t xml:space="preserve">374135.70899923</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150_78% Conversion Factor</t>
@@ -839,10 +869,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>2015</v>
@@ -851,33 +887,39 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="n">
         <v>2015</v>
@@ -886,33 +928,39 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="n">
         <v>2015</v>
@@ -921,33 +969,39 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" t="n">
         <v>2015</v>
@@ -956,33 +1010,39 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n">
         <v>2015</v>
@@ -991,33 +1051,39 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n">
         <v>2015</v>
@@ -1026,33 +1092,39 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B8" t="n">
         <v>2015</v>
@@ -1061,33 +1133,39 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B9" t="n">
         <v>2015</v>
@@ -1096,33 +1174,39 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
         <v>2015</v>
@@ -1131,33 +1215,39 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
-      </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B11" t="n">
         <v>2070</v>
@@ -1166,33 +1256,39 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B12" t="n">
         <v>2070</v>
@@ -1201,33 +1297,39 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B13" t="n">
         <v>2070</v>
@@ -1236,33 +1338,39 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B14" t="n">
         <v>2070</v>
@@ -1271,33 +1379,39 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B15" t="n">
         <v>2070</v>
@@ -1306,33 +1420,39 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B16" t="n">
         <v>2070</v>
@@ -1341,33 +1461,39 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B17" t="n">
         <v>2070</v>
@@ -1376,33 +1502,39 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="L17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B18" t="n">
         <v>2070</v>
@@ -1411,33 +1543,39 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B19" t="n">
         <v>2070</v>
@@ -1446,33 +1584,39 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="L19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B20" t="n">
         <v>2070</v>
@@ -1481,33 +1625,39 @@
         <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B21" t="n">
         <v>2070</v>
@@ -1516,33 +1666,39 @@
         <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B22" t="n">
         <v>2070</v>
@@ -1551,33 +1707,39 @@
         <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B23" t="n">
         <v>2070</v>
@@ -1586,33 +1748,39 @@
         <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="L23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B24" t="n">
         <v>2070</v>
@@ -1621,33 +1789,39 @@
         <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="L24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B25" t="n">
         <v>2070</v>
@@ -1656,33 +1830,39 @@
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J25" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="L25" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B26" t="n">
         <v>2070</v>
@@ -1691,33 +1871,39 @@
         <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B27" t="n">
         <v>2070</v>
@@ -1726,33 +1912,39 @@
         <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="L27" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B28" t="n">
         <v>2070</v>
@@ -1761,33 +1953,39 @@
         <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="L28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B29" t="n">
         <v>2070</v>
@@ -1796,33 +1994,39 @@
         <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B30" t="n">
         <v>2070</v>
@@ -1831,33 +2035,39 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B31" t="n">
         <v>2070</v>
@@ -1866,33 +2076,39 @@
         <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="L31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B32" t="n">
         <v>2070</v>
@@ -1901,33 +2117,39 @@
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="L32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B33" t="n">
         <v>2070</v>
@@ -1936,33 +2158,39 @@
         <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="L33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B34" t="n">
         <v>2070</v>
@@ -1971,33 +2199,39 @@
         <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J34" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="L34" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B35" t="n">
         <v>2070</v>
@@ -2006,33 +2240,39 @@
         <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K35" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="L35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B36" t="n">
         <v>2070</v>
@@ -2041,33 +2281,39 @@
         <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K36" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="L36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B37" t="n">
         <v>2070</v>
@@ -2076,33 +2322,39 @@
         <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="L37" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B38" t="n">
         <v>2150</v>
@@ -2111,33 +2363,39 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J38" t="s">
         <v>15</v>
       </c>
       <c r="K38" t="s">
-        <v>101</v>
+        <v>17</v>
+      </c>
+      <c r="L38" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B39" t="n">
         <v>2150</v>
@@ -2146,33 +2404,39 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>101</v>
+        <v>17</v>
+      </c>
+      <c r="L39" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B40" t="n">
         <v>2150</v>
@@ -2181,33 +2445,39 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J40" t="s">
         <v>15</v>
       </c>
       <c r="K40" t="s">
-        <v>101</v>
+        <v>17</v>
+      </c>
+      <c r="L40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B41" t="n">
         <v>2150</v>
@@ -2216,33 +2486,39 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J41" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>101</v>
+        <v>35</v>
+      </c>
+      <c r="L41" t="s">
+        <v>116</v>
+      </c>
+      <c r="M41" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B42" t="n">
         <v>2150</v>
@@ -2251,33 +2527,39 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" t="s">
+        <v>116</v>
+      </c>
+      <c r="M42" t="s">
         <v>109</v>
-      </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B43" t="n">
         <v>2150</v>
@@ -2286,33 +2568,39 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J43" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>101</v>
+        <v>35</v>
+      </c>
+      <c r="L43" t="s">
+        <v>116</v>
+      </c>
+      <c r="M43" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B44" t="n">
         <v>2150</v>
@@ -2321,33 +2609,39 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K44" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="L44" t="s">
+        <v>123</v>
+      </c>
+      <c r="M44" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B45" t="n">
         <v>2150</v>
@@ -2356,33 +2650,39 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J45" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K45" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="L45" t="s">
+        <v>123</v>
+      </c>
+      <c r="M45" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B46" t="n">
         <v>2150</v>
@@ -2391,33 +2691,39 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J46" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K46" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="L46" t="s">
+        <v>123</v>
+      </c>
+      <c r="M46" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B47" t="n">
         <v>2150</v>
@@ -2426,33 +2732,39 @@
         <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J47" t="s">
         <v>15</v>
       </c>
       <c r="K47" t="s">
-        <v>101</v>
+        <v>17</v>
+      </c>
+      <c r="L47" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B48" t="n">
         <v>2150</v>
@@ -2461,33 +2773,39 @@
         <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J48" t="s">
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>101</v>
+        <v>17</v>
+      </c>
+      <c r="L48" t="s">
+        <v>15</v>
+      </c>
+      <c r="M48" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B49" t="n">
         <v>2150</v>
@@ -2496,33 +2814,39 @@
         <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H49" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J49" t="s">
         <v>15</v>
       </c>
       <c r="K49" t="s">
-        <v>101</v>
+        <v>17</v>
+      </c>
+      <c r="L49" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B50" t="n">
         <v>2150</v>
@@ -2531,33 +2855,39 @@
         <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J50" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>101</v>
+        <v>35</v>
+      </c>
+      <c r="L50" t="s">
+        <v>116</v>
+      </c>
+      <c r="M50" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B51" t="n">
         <v>2150</v>
@@ -2566,33 +2896,39 @@
         <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>101</v>
+        <v>35</v>
+      </c>
+      <c r="L51" t="s">
+        <v>116</v>
+      </c>
+      <c r="M51" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B52" t="n">
         <v>2150</v>
@@ -2601,33 +2937,39 @@
         <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J52" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>101</v>
+        <v>35</v>
+      </c>
+      <c r="L52" t="s">
+        <v>116</v>
+      </c>
+      <c r="M52" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B53" t="n">
         <v>2150</v>
@@ -2636,33 +2978,39 @@
         <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J53" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K53" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="L53" t="s">
+        <v>123</v>
+      </c>
+      <c r="M53" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B54" t="n">
         <v>2150</v>
@@ -2671,33 +3019,39 @@
         <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K54" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="L54" t="s">
+        <v>123</v>
+      </c>
+      <c r="M54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B55" t="n">
         <v>2150</v>
@@ -2706,33 +3060,39 @@
         <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K55" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="L55" t="s">
+        <v>123</v>
+      </c>
+      <c r="M55" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B56" t="n">
         <v>2150</v>
@@ -2741,33 +3101,39 @@
         <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J56" t="s">
         <v>15</v>
       </c>
       <c r="K56" t="s">
-        <v>101</v>
+        <v>17</v>
+      </c>
+      <c r="L56" t="s">
+        <v>15</v>
+      </c>
+      <c r="M56" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B57" t="n">
         <v>2150</v>
@@ -2776,33 +3142,39 @@
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J57" t="s">
         <v>15</v>
       </c>
       <c r="K57" t="s">
-        <v>101</v>
+        <v>17</v>
+      </c>
+      <c r="L57" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B58" t="n">
         <v>2150</v>
@@ -2811,33 +3183,39 @@
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I58" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J58" t="s">
         <v>15</v>
       </c>
       <c r="K58" t="s">
-        <v>101</v>
+        <v>17</v>
+      </c>
+      <c r="L58" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B59" t="n">
         <v>2150</v>
@@ -2846,33 +3224,39 @@
         <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J59" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>101</v>
+        <v>35</v>
+      </c>
+      <c r="L59" t="s">
+        <v>116</v>
+      </c>
+      <c r="M59" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B60" t="n">
         <v>2150</v>
@@ -2881,33 +3265,39 @@
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J60" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>101</v>
+        <v>35</v>
+      </c>
+      <c r="L60" t="s">
+        <v>116</v>
+      </c>
+      <c r="M60" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B61" t="n">
         <v>2150</v>
@@ -2916,33 +3306,39 @@
         <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J61" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>101</v>
+        <v>35</v>
+      </c>
+      <c r="L61" t="s">
+        <v>116</v>
+      </c>
+      <c r="M61" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B62" t="n">
         <v>2150</v>
@@ -2951,33 +3347,39 @@
         <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J62" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K62" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="L62" t="s">
+        <v>123</v>
+      </c>
+      <c r="M62" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B63" t="n">
         <v>2150</v>
@@ -2986,33 +3388,39 @@
         <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K63" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="L63" t="s">
+        <v>123</v>
+      </c>
+      <c r="M63" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B64" t="n">
         <v>2150</v>
@@ -3021,28 +3429,34 @@
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H64" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J64" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K64" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="L64" t="s">
+        <v>123</v>
+      </c>
+      <c r="M64" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t xml:space="preserve">MI + AG</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Average_PerCapita_%_Change</t>
   </si>
   <si>
-    <t xml:space="preserve">Average_GPCD_Change</t>
+    <t xml:space="preserve">Average_GPCD</t>
   </si>
   <si>
     <t xml:space="preserve">PerCapita_Scenario</t>
@@ -62,6 +62,9 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
     <t xml:space="preserve">Base PC</t>
   </si>
   <si>
@@ -86,7 +89,7 @@
     <t xml:space="preserve">25</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">98</t>
   </si>
   <si>
     <t xml:space="preserve">2025 Goal PC 25% from 2015</t>
@@ -107,7 +110,7 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">17</t>
+    <t xml:space="preserve">86</t>
   </si>
   <si>
     <t xml:space="preserve">Additional 10% Decrease to PC</t>
@@ -119,6 +122,9 @@
     <t xml:space="preserve">MI_SA_HighET_2015</t>
   </si>
   <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
     <t xml:space="preserve">Low Emissions ET</t>
   </si>
   <si>
@@ -131,10 +137,16 @@
     <t xml:space="preserve">MI_SA_PCDec_HighET_2015</t>
   </si>
   <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
     <t xml:space="preserve">497248.352499649</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
   </si>
   <si>
     <t xml:space="preserve">554185.047333846</t>
@@ -899,27 +911,27 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
         <v>2015</v>
@@ -928,39 +940,39 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
         <v>2015</v>
@@ -969,39 +981,39 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>2015</v>
@@ -1010,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1022,27 +1034,27 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" t="n">
         <v>2015</v>
@@ -1051,39 +1063,39 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7" t="n">
         <v>2015</v>
@@ -1092,39 +1104,39 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8" t="n">
         <v>2015</v>
@@ -1133,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1145,27 +1157,27 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" t="n">
         <v>2015</v>
@@ -1174,39 +1186,39 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B10" t="n">
         <v>2015</v>
@@ -1215,39 +1227,39 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B11" t="n">
         <v>2070</v>
@@ -1256,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1268,27 +1280,27 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B12" t="n">
         <v>2070</v>
@@ -1297,39 +1309,39 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B13" t="n">
         <v>2070</v>
@@ -1338,39 +1350,39 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B14" t="n">
         <v>2070</v>
@@ -1379,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -1391,27 +1403,27 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B15" t="n">
         <v>2070</v>
@@ -1420,39 +1432,39 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B16" t="n">
         <v>2070</v>
@@ -1461,39 +1473,39 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" t="s">
-        <v>59</v>
-      </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B17" t="n">
         <v>2070</v>
@@ -1502,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1514,27 +1526,27 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B18" t="n">
         <v>2070</v>
@@ -1543,39 +1555,39 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B19" t="n">
         <v>2070</v>
@@ -1584,39 +1596,39 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" t="s">
-        <v>66</v>
-      </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B20" t="n">
         <v>2070</v>
@@ -1625,7 +1637,7 @@
         <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -1637,27 +1649,27 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L20" t="s">
         <v>15</v>
       </c>
       <c r="M20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B21" t="n">
         <v>2070</v>
@@ -1666,39 +1678,39 @@
         <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L21" t="s">
         <v>15</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B22" t="n">
         <v>2070</v>
@@ -1707,39 +1719,39 @@
         <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
         <v>15</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B23" t="n">
         <v>2070</v>
@@ -1748,7 +1760,7 @@
         <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -1760,27 +1772,27 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B24" t="n">
         <v>2070</v>
@@ -1789,39 +1801,39 @@
         <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B25" t="n">
         <v>2070</v>
@@ -1830,39 +1842,39 @@
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B26" t="n">
         <v>2070</v>
@@ -1871,7 +1883,7 @@
         <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -1883,27 +1895,27 @@
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B27" t="n">
         <v>2070</v>
@@ -1912,39 +1924,39 @@
         <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B28" t="n">
         <v>2070</v>
@@ -1953,39 +1965,39 @@
         <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B29" t="n">
         <v>2070</v>
@@ -1994,7 +2006,7 @@
         <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -2006,27 +2018,27 @@
         <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
       </c>
       <c r="K29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L29" t="s">
         <v>15</v>
       </c>
       <c r="M29" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B30" t="n">
         <v>2070</v>
@@ -2035,39 +2047,39 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L30" t="s">
         <v>15</v>
       </c>
       <c r="M30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B31" t="n">
         <v>2070</v>
@@ -2076,39 +2088,39 @@
         <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
       </c>
       <c r="K31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L31" t="s">
         <v>15</v>
       </c>
       <c r="M31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B32" t="n">
         <v>2070</v>
@@ -2117,7 +2129,7 @@
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
@@ -2129,27 +2141,27 @@
         <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L32" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B33" t="n">
         <v>2070</v>
@@ -2158,39 +2170,39 @@
         <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L33" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B34" t="n">
         <v>2070</v>
@@ -2199,39 +2211,39 @@
         <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L34" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B35" t="n">
         <v>2070</v>
@@ -2240,7 +2252,7 @@
         <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -2252,27 +2264,27 @@
         <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B36" t="n">
         <v>2070</v>
@@ -2281,39 +2293,39 @@
         <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B37" t="n">
         <v>2070</v>
@@ -2322,39 +2334,39 @@
         <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B38" t="n">
         <v>2150</v>
@@ -2363,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
@@ -2375,27 +2387,27 @@
         <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J38" t="s">
         <v>15</v>
       </c>
       <c r="K38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L38" t="s">
         <v>15</v>
       </c>
       <c r="M38" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B39" t="n">
         <v>2150</v>
@@ -2404,39 +2416,39 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L39" t="s">
         <v>15</v>
       </c>
       <c r="M39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B40" t="n">
         <v>2150</v>
@@ -2445,39 +2457,39 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" t="s">
         <v>113</v>
-      </c>
-      <c r="E40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" t="s">
-        <v>15</v>
-      </c>
-      <c r="M40" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B41" t="n">
         <v>2150</v>
@@ -2486,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
@@ -2498,27 +2510,27 @@
         <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L41" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M41" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B42" t="n">
         <v>2150</v>
@@ -2527,39 +2539,39 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L42" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M42" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B43" t="n">
         <v>2150</v>
@@ -2568,39 +2580,39 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" t="s">
         <v>120</v>
       </c>
-      <c r="E43" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" t="s">
-        <v>35</v>
-      </c>
-      <c r="L43" t="s">
-        <v>116</v>
-      </c>
       <c r="M43" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B44" t="n">
         <v>2150</v>
@@ -2609,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
@@ -2621,27 +2633,27 @@
         <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L44" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M44" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B45" t="n">
         <v>2150</v>
@@ -2650,39 +2662,39 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L45" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M45" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B46" t="n">
         <v>2150</v>
@@ -2691,39 +2703,39 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" t="s">
+        <v>48</v>
+      </c>
+      <c r="L46" t="s">
         <v>127</v>
       </c>
-      <c r="E46" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" t="s">
-        <v>43</v>
-      </c>
-      <c r="K46" t="s">
-        <v>44</v>
-      </c>
-      <c r="L46" t="s">
-        <v>123</v>
-      </c>
       <c r="M46" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B47" t="n">
         <v>2150</v>
@@ -2732,7 +2744,7 @@
         <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
@@ -2744,27 +2756,27 @@
         <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J47" t="s">
         <v>15</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L47" t="s">
         <v>15</v>
       </c>
       <c r="M47" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B48" t="n">
         <v>2150</v>
@@ -2773,39 +2785,39 @@
         <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J48" t="s">
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L48" t="s">
         <v>15</v>
       </c>
       <c r="M48" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B49" t="n">
         <v>2150</v>
@@ -2814,39 +2826,39 @@
         <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J49" t="s">
         <v>15</v>
       </c>
       <c r="K49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L49" t="s">
         <v>15</v>
       </c>
       <c r="M49" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B50" t="n">
         <v>2150</v>
@@ -2855,7 +2867,7 @@
         <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
         <v>15</v>
@@ -2867,27 +2879,27 @@
         <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L50" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M50" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B51" t="n">
         <v>2150</v>
@@ -2896,39 +2908,39 @@
         <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L51" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M51" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B52" t="n">
         <v>2150</v>
@@ -2937,39 +2949,39 @@
         <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L52" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M52" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B53" t="n">
         <v>2150</v>
@@ -2978,7 +2990,7 @@
         <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
         <v>15</v>
@@ -2990,27 +3002,27 @@
         <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L53" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M53" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B54" t="n">
         <v>2150</v>
@@ -3019,39 +3031,39 @@
         <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L54" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M54" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B55" t="n">
         <v>2150</v>
@@ -3060,39 +3072,39 @@
         <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H55" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L55" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M55" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B56" t="n">
         <v>2150</v>
@@ -3101,7 +3113,7 @@
         <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
         <v>15</v>
@@ -3113,27 +3125,27 @@
         <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J56" t="s">
         <v>15</v>
       </c>
       <c r="K56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L56" t="s">
         <v>15</v>
       </c>
       <c r="M56" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B57" t="n">
         <v>2150</v>
@@ -3142,39 +3154,39 @@
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J57" t="s">
         <v>15</v>
       </c>
       <c r="K57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L57" t="s">
         <v>15</v>
       </c>
       <c r="M57" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B58" t="n">
         <v>2150</v>
@@ -3183,39 +3195,39 @@
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J58" t="s">
         <v>15</v>
       </c>
       <c r="K58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L58" t="s">
         <v>15</v>
       </c>
       <c r="M58" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B59" t="n">
         <v>2150</v>
@@ -3224,7 +3236,7 @@
         <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
@@ -3236,27 +3248,27 @@
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L59" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M59" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B60" t="n">
         <v>2150</v>
@@ -3265,39 +3277,39 @@
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L60" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M60" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B61" t="n">
         <v>2150</v>
@@ -3306,39 +3318,39 @@
         <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L61" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M61" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B62" t="n">
         <v>2150</v>
@@ -3347,7 +3359,7 @@
         <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E62" t="s">
         <v>15</v>
@@ -3359,27 +3371,27 @@
         <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L62" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M62" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B63" t="n">
         <v>2150</v>
@@ -3388,39 +3400,39 @@
         <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L63" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M63" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B64" t="n">
         <v>2150</v>
@@ -3429,34 +3441,34 @@
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M64" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
@@ -14,28 +14,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
-    <t xml:space="preserve">Potable_PerCapita_%_Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary_PerCapita_%_Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average_PerCapita_%_Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average_GPCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PerCapita_Scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET_%_Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET_Scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET_Changes</t>
+    <t xml:space="preserve">Potable.PerCapita...Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary.PerCapita...Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg.Reduced.PerCapita...Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg.Reduced.PerCapita.GPCD.Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PerCapita.Change.by.Scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET.Change.by..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET.Change.by.Scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET.Change.by.Acre.Feet.Year</t>
   </si>
   <si>
     <t xml:space="preserve">Population</t>
@@ -413,55 +413,55 @@
     <t xml:space="preserve">6965058</t>
   </si>
   <si>
-    <t xml:space="preserve">861520.120351798</t>
+    <t xml:space="preserve">824115.079973905</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150100% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">509603.351942459</t>
+    <t xml:space="preserve">504190.745056323</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150_71% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">502944.500457652</t>
+    <t xml:space="preserve">498137.243706499</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150_63% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">766469.827338899</t>
+    <t xml:space="preserve">729064.786961005</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2150100% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">414553.05892956</t>
+    <t xml:space="preserve">409140.452043424</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2150_71% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">407894.207444753</t>
+    <t xml:space="preserve">403086.9506936</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_2150_63% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">725013.359719402</t>
+    <t xml:space="preserve">687608.319341508</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2150100% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">373096.591310063</t>
+    <t xml:space="preserve">367683.984423927</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2150_71% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">366437.739825256</t>
+    <t xml:space="preserve">361630.483074103</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_2150_63% Conversion Factor</t>
@@ -470,19 +470,19 @@
     <t xml:space="preserve">3051.39605677528</t>
   </si>
   <si>
-    <t xml:space="preserve">883850.880932382</t>
+    <t xml:space="preserve">846445.840554488</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2150100% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">531934.112523043</t>
+    <t xml:space="preserve">526521.505636907</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2150_71% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">525275.261038236</t>
+    <t xml:space="preserve">520468.004287083</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_HighET_2150_63% Conversion Factor</t>
@@ -491,19 +491,19 @@
     <t xml:space="preserve">2333.95758232402</t>
   </si>
   <si>
-    <t xml:space="preserve">781208.129322085</t>
+    <t xml:space="preserve">743803.088944191</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2150100% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">429291.360912745</t>
+    <t xml:space="preserve">423878.75402661</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2150_71% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">422632.509427939</t>
+    <t xml:space="preserve">417825.252676785</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_HighET_2150_63% Conversion Factor</t>
@@ -512,19 +512,19 @@
     <t xml:space="preserve">2028.81797664649</t>
   </si>
   <si>
-    <t xml:space="preserve">737518.585644529</t>
+    <t xml:space="preserve">700113.545266636</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150100% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">385601.81723519</t>
+    <t xml:space="preserve">380189.210349054</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150_71% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">378942.965750383</t>
+    <t xml:space="preserve">374135.70899923</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150_63% Conversion Factor</t>
@@ -533,19 +533,19 @@
     <t xml:space="preserve">2988.9265312035</t>
   </si>
   <si>
-    <t xml:space="preserve">874918.576700148</t>
+    <t xml:space="preserve">837513.536322254</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_ET_Low_2150100% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">523001.808290809</t>
+    <t xml:space="preserve">517589.201404673</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_ET_Low_2150_71% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">516342.956806002</t>
+    <t xml:space="preserve">511535.700054849</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_ET_Low_2150_63% Conversion Factor</t>
@@ -554,19 +554,19 @@
     <t xml:space="preserve">2292.72769544665</t>
   </si>
   <si>
-    <t xml:space="preserve">775312.80852881</t>
+    <t xml:space="preserve">737907.768150917</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150100% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">423396.040119471</t>
+    <t xml:space="preserve">417983.433233335</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150_71% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">416737.188634664</t>
+    <t xml:space="preserve">411929.931883511</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150_63% Conversion Factor</t>
@@ -575,19 +575,19 @@
     <t xml:space="preserve">1993.8350423263</t>
   </si>
   <si>
-    <t xml:space="preserve">732516.495274478</t>
+    <t xml:space="preserve">695111.454896585</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150100% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">380599.726865139</t>
+    <t xml:space="preserve">375187.119979003</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150_71% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">373940.875380332</t>
+    <t xml:space="preserve">369133.618629179</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150_63% Conversion Factor</t>
@@ -596,19 +596,19 @@
     <t xml:space="preserve">2817.13533588112</t>
   </si>
   <si>
-    <t xml:space="preserve">850354.740061506</t>
+    <t xml:space="preserve">812949.699683612</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_Precip_2150100% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">498437.971652167</t>
+    <t xml:space="preserve">493025.364766031</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_Precip_2150_71% Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">491779.12016736</t>
+    <t xml:space="preserve">486971.863416207</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_Precip_2150_63% Conversion Factor</t>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
@@ -179,7 +179,7 @@
     <t xml:space="preserve">695570.750503516</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_2070_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_2070100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">5109197</t>
@@ -188,19 +188,19 @@
     <t xml:space="preserve">626640.016608724</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_2070_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_2070100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">596677.798649798</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_2070_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_2070100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">711807.63214346</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_HighET_2070_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_HighET_2070100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">16237</t>
@@ -209,19 +209,19 @@
     <t xml:space="preserve">637356.358491087</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_HighET_2070_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2070100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">605770.452368166</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_HighET_2070_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2070100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">705312.879487483</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET_Low_2070_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2070100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">9742</t>
@@ -230,127 +230,127 @@
     <t xml:space="preserve">633069.821738142</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2070_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2070100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">602133.390880819</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">506759.368420597</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_2070_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_2070_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">437828.634525805</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_2070_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_2070_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">407866.416566879</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_2070_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_2070_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">522996.250060541</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_HighET_2070_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_HighET_2070_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">448544.976408168</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_HighET_2070_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2070_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">416959.070285247</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_HighET_2070_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2070_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">516501.497404564</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET_Low_2070_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2070_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">444258.439655223</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2070_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2070_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">413322.008797899</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">482783.319902131</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_2070_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_2070_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">413852.586007339</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_2070_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_2070_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">383890.368048413</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_2070_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_2070_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">499020.201542075</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_HighET_2070_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_HighET_2070_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">424568.927889702</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_HighET_2070_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2070_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">392983.021766781</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_HighET_2070_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2070_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">492525.448886098</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET_Low_2070_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2070_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">420282.391136757</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2070_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2070_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">389345.960279434</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">824115.079973905</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_2150_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_2150100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">6965058</t>
@@ -359,19 +359,19 @@
     <t xml:space="preserve">729064.786961005</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_2150_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_2150100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">687608.319341508</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_2150_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_2150100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">846445.840554488</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_HighET_2150_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_HighET_2150100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">22331</t>
@@ -380,19 +380,19 @@
     <t xml:space="preserve">743803.088944191</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_HighET_2150_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2150100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">700113.545266636</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_HighET_2150_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2150100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">837513.536322254</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET_Low_2150_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2150100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">13398</t>
@@ -401,121 +401,121 @@
     <t xml:space="preserve">737907.768150917</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">695111.454896585</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150_65% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150100% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">504190.745056323</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_2150_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_2150_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">409140.452043424</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_2150_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_2150_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">367683.984423927</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_2150_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_2150_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">526521.505636907</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_HighET_2150_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_HighET_2150_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">423878.75402661</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_HighET_2150_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2150_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">380189.210349054</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_HighET_2150_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2150_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">517589.201404673</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET_Low_2150_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2150_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">417983.433233335</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">375187.119979003</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150_72% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150_71% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">498137.243706499</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_2150_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_2150_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">403086.9506936</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_2150_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_2150_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">361630.483074103</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_2150_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_2150_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">520468.004287083</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_HighET_2150_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_HighET_2150_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">417825.252676785</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_HighET_2150_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2150_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">374135.70899923</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_HighET_2150_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2150_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">511535.700054849</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET_Low_2150_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2150_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">411929.931883511</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150_63% Conversion Factor</t>
   </si>
   <si>
     <t xml:space="preserve">369133.618629179</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150_78% Conversion Factor</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150_63% Conversion Factor</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
         <v>2015</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -937,7 +937,7 @@
         <v>2015</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -978,7 +978,7 @@
         <v>2015</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -1019,7 +1019,7 @@
         <v>2015</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -1060,7 +1060,7 @@
         <v>2015</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -1101,7 +1101,7 @@
         <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
@@ -1142,7 +1142,7 @@
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -1183,7 +1183,7 @@
         <v>2015</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -1224,7 +1224,7 @@
         <v>2015</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
@@ -1265,7 +1265,7 @@
         <v>2070</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
@@ -1306,7 +1306,7 @@
         <v>2070</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>58</v>
@@ -1347,7 +1347,7 @@
         <v>2070</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
@@ -1388,7 +1388,7 @@
         <v>2070</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
         <v>62</v>
@@ -1429,7 +1429,7 @@
         <v>2070</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
@@ -1470,7 +1470,7 @@
         <v>2070</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
@@ -1511,7 +1511,7 @@
         <v>2070</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
@@ -1552,7 +1552,7 @@
         <v>2070</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
@@ -1593,7 +1593,7 @@
         <v>2070</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
         <v>74</v>
@@ -2372,7 +2372,7 @@
         <v>2150</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
         <v>112</v>
@@ -2413,7 +2413,7 @@
         <v>2150</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2454,7 +2454,7 @@
         <v>2150</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
         <v>117</v>
@@ -2495,7 +2495,7 @@
         <v>2150</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
         <v>119</v>
@@ -2536,7 +2536,7 @@
         <v>2150</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
         <v>122</v>
@@ -2577,7 +2577,7 @@
         <v>2150</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
         <v>124</v>
@@ -2618,7 +2618,7 @@
         <v>2150</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
         <v>126</v>
@@ -2659,7 +2659,7 @@
         <v>2150</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
         <v>129</v>
@@ -2700,7 +2700,7 @@
         <v>2150</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
         <v>131</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/AllDemandData.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">125</t>
+    <t xml:space="preserve">250</t>
   </si>
   <si>
     <t xml:space="preserve">Base PC</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">25</t>
   </si>
   <si>
-    <t xml:space="preserve">98</t>
+    <t xml:space="preserve">196</t>
   </si>
   <si>
     <t xml:space="preserve">2025 Goal PC 25% from 2015</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">86</t>
+    <t xml:space="preserve">171</t>
   </si>
   <si>
     <t xml:space="preserve">Additional 10% Decrease to PC</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">MI_SA_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">117</t>
+    <t xml:space="preserve">235</t>
   </si>
   <si>
     <t xml:space="preserve">Low Emissions ET</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">MI_SA_PCDec_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">91</t>
+    <t xml:space="preserve">183</t>
   </si>
   <si>
     <t xml:space="preserve">497248.352499649</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">MI_SA_PCDD_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">80</t>
+    <t xml:space="preserve">159</t>
   </si>
   <si>
     <t xml:space="preserve">554185.047333846</t>
